--- a/leagueStats/leagueStats_ENG_minute.xlsx
+++ b/leagueStats/leagueStats_ENG_minute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O220"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
         <v>0.44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N2" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -583,10 +583,10 @@
         <v>0.47</v>
       </c>
       <c r="H3" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -634,10 +634,10 @@
         <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="N4" t="n">
         <v>0.23</v>
@@ -685,28 +685,28 @@
         <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.14</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="N5" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -736,10 +736,10 @@
         <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.17</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="M7" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="N7" t="n">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
@@ -838,10 +838,10 @@
         <v>2.03</v>
       </c>
       <c r="H8" t="n">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="I8" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="H9" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="I9" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="M9" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -940,10 +940,10 @@
         <v>0.77</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="N10" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
@@ -991,10 +991,10 @@
         <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="M11" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
@@ -1045,7 +1045,7 @@
         <v>0.83</v>
       </c>
       <c r="I12" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0.45</v>
       </c>
       <c r="M12" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N12" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -1093,10 +1093,10 @@
         <v>1.43</v>
       </c>
       <c r="H13" t="n">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
@@ -1144,10 +1144,10 @@
         <v>1.39</v>
       </c>
       <c r="H14" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="I14" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -1195,10 +1195,10 @@
         <v>0.61</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.08</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.14</v>
-      </c>
       <c r="N15" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -1246,25 +1246,25 @@
         <v>0.29</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="I16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.13</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="O16" t="n">
         <v>4</v>
@@ -1297,10 +1297,10 @@
         <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="I18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N18" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O18" t="n">
         <v>4</v>
@@ -1399,10 +1399,10 @@
         <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="I19" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -1450,10 +1450,10 @@
         <v>0.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.71</v>
+        <v>2.29</v>
       </c>
       <c r="I20" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="M20" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -1501,10 +1501,10 @@
         <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="M21" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="N21" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="O21" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
         <v>1.63</v>
       </c>
       <c r="I22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="N22" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="I23" t="n">
         <v>2.04</v>
@@ -1612,19 +1612,19 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="M23" t="n">
         <v>0.47</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1654,10 +1654,10 @@
         <v>2.49</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="I24" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="N24" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="O24" t="n">
         <v>4</v>
@@ -1705,10 +1705,10 @@
         <v>0.95</v>
       </c>
       <c r="H25" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="I25" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
@@ -1756,28 +1756,28 @@
         <v>1.55</v>
       </c>
       <c r="H26" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="N26" t="n">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1807,10 +1807,10 @@
         <v>0.77</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="I27" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="M27" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -1858,10 +1858,10 @@
         <v>3.01</v>
       </c>
       <c r="H28" t="n">
-        <v>0.72</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="M28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.34</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.35</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
@@ -1909,10 +1909,10 @@
         <v>0.54</v>
       </c>
       <c r="H29" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="I29" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
         <v>1.79</v>
       </c>
       <c r="H30" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="I30" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="N30" t="n">
         <v>0.62</v>
@@ -2011,10 +2011,10 @@
         <v>1.27</v>
       </c>
       <c r="H31" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="I31" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="N31" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O31" t="n">
         <v>3</v>
@@ -2062,10 +2062,10 @@
         <v>0.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="I32" t="n">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="M32" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="N32" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="O32" t="n">
         <v>4</v>
@@ -2113,10 +2113,10 @@
         <v>0.78</v>
       </c>
       <c r="H33" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="I33" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="N33" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
@@ -2164,10 +2164,10 @@
         <v>0.35</v>
       </c>
       <c r="H34" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I34" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N34" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>1.23</v>
       </c>
       <c r="H35" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="I35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="N35" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="O35" t="n">
         <v>3</v>
@@ -2266,10 +2266,10 @@
         <v>0.76</v>
       </c>
       <c r="H36" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="I36" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="N36" t="n">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
       <c r="O36" t="n">
         <v>2</v>
@@ -2317,10 +2317,10 @@
         <v>0.44</v>
       </c>
       <c r="H37" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="I37" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="M37" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="N37" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -2368,10 +2368,10 @@
         <v>0.96</v>
       </c>
       <c r="H38" t="n">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="I38" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="N38" t="n">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="O38" t="n">
         <v>2</v>
@@ -2419,10 +2419,10 @@
         <v>2.67</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="N39" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O39" t="n">
         <v>4</v>
@@ -2473,7 +2473,7 @@
         <v>0.89</v>
       </c>
       <c r="I40" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0.18</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N40" t="n">
         <v>0.24</v>
@@ -2521,10 +2521,10 @@
         <v>1.52</v>
       </c>
       <c r="H41" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="I41" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
@@ -2572,28 +2572,28 @@
         <v>0.51</v>
       </c>
       <c r="H42" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="I42" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="M42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N42" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2623,10 +2623,10 @@
         <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="I43" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="M43" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="N43" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
         <v>1.54</v>
       </c>
       <c r="H44" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="M44" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="N44" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="O44" t="n">
         <v>4</v>
@@ -2725,10 +2725,10 @@
         <v>1.1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I45" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="N45" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
@@ -2776,10 +2776,10 @@
         <v>1.08</v>
       </c>
       <c r="H46" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="I46" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="M46" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="N46" t="n">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="O46" t="n">
         <v>3</v>
@@ -2827,10 +2827,10 @@
         <v>1.69</v>
       </c>
       <c r="H47" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I47" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -2878,28 +2878,28 @@
         <v>0.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="M48" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="N48" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>2.19</v>
       </c>
       <c r="H49" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="I49" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="M49" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="N49" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
@@ -2980,28 +2980,28 @@
         <v>1.42</v>
       </c>
       <c r="H50" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="I50" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="M50" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="N50" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3034,7 +3034,7 @@
         <v>2.31</v>
       </c>
       <c r="I51" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0.12</v>
       </c>
       <c r="M51" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="N51" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="O51" t="n">
         <v>3</v>
@@ -3082,10 +3082,10 @@
         <v>0.32</v>
       </c>
       <c r="H52" t="n">
-        <v>5.07</v>
+        <v>4.78</v>
       </c>
       <c r="I52" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3094,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="N52" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="O52" t="n">
         <v>5</v>
@@ -3133,10 +3133,10 @@
         <v>0.99</v>
       </c>
       <c r="H53" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M53" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="N53" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="O53" t="n">
         <v>2</v>
@@ -3184,10 +3184,10 @@
         <v>1.11</v>
       </c>
       <c r="H54" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="I54" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N54" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="O54" t="n">
         <v>5</v>
@@ -3235,10 +3235,10 @@
         <v>0.93</v>
       </c>
       <c r="H55" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="I55" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="M55" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="N55" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="O55" t="n">
         <v>3</v>
@@ -3286,10 +3286,10 @@
         <v>0.91</v>
       </c>
       <c r="H56" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="I56" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="M56" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="N56" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
@@ -3337,10 +3337,10 @@
         <v>1.33</v>
       </c>
       <c r="H57" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I57" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3349,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.12</v>
       </c>
-      <c r="M57" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="N57" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2.54</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="I58" t="n">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="M58" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="N58" t="n">
         <v>0.65</v>
@@ -3439,28 +3439,28 @@
         <v>0.82</v>
       </c>
       <c r="H59" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I59" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="M59" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="N59" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3490,10 +3490,10 @@
         <v>4.71</v>
       </c>
       <c r="H60" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="I60" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="M60" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -3541,10 +3541,10 @@
         <v>0.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="I61" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="M61" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N61" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="O61" t="n">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>0.65</v>
       </c>
       <c r="H62" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="M62" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="N62" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O62" t="n">
         <v>3</v>
@@ -3643,10 +3643,10 @@
         <v>1.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3.03</v>
+        <v>3.21</v>
       </c>
       <c r="I63" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="M63" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="N63" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="O63" t="n">
         <v>6</v>
@@ -3694,10 +3694,10 @@
         <v>1.39</v>
       </c>
       <c r="H64" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M64" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="N64" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="O64" t="n">
         <v>1</v>
@@ -3745,10 +3745,10 @@
         <v>2.05</v>
       </c>
       <c r="H65" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I65" t="n">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M65" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="N65" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="O65" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
         <v>2.16</v>
       </c>
       <c r="H66" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I66" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="M66" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="N66" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>2.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="I67" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="M67" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.99</v>
       </c>
       <c r="O67" t="n">
         <v>4</v>
@@ -3898,10 +3898,10 @@
         <v>0.65</v>
       </c>
       <c r="H68" t="n">
-        <v>3.97</v>
+        <v>3.8</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="M68" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="N68" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="O68" t="n">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>0.55</v>
       </c>
       <c r="I69" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3964,10 +3964,10 @@
         <v>0.05</v>
       </c>
       <c r="M69" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N69" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4000,10 +4000,10 @@
         <v>1.34</v>
       </c>
       <c r="H70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I70" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="M70" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="O70" t="n">
         <v>5</v>
@@ -4051,7 +4051,7 @@
         <v>0.87</v>
       </c>
       <c r="H71" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="I71" t="n">
         <v>1.01</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M71" t="n">
         <v>0.14</v>
       </c>
       <c r="N71" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="O71" t="n">
         <v>2</v>
@@ -4102,10 +4102,10 @@
         <v>0.71</v>
       </c>
       <c r="H72" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="I72" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4114,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="M72" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="N72" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="O72" t="n">
         <v>1</v>
@@ -4153,10 +4153,10 @@
         <v>1.68</v>
       </c>
       <c r="H73" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="I73" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M73" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="N73" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O73" t="n">
         <v>3</v>
@@ -4204,10 +4204,10 @@
         <v>1.74</v>
       </c>
       <c r="H74" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="M74" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N74" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="O74" t="n">
         <v>2</v>
@@ -4255,10 +4255,10 @@
         <v>0.86</v>
       </c>
       <c r="H75" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="I75" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="M75" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="N75" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="O75" t="n">
         <v>3</v>
@@ -4306,10 +4306,10 @@
         <v>1.12</v>
       </c>
       <c r="H76" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="I76" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="M76" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N76" t="n">
         <v>0.5</v>
@@ -4357,10 +4357,10 @@
         <v>3.21</v>
       </c>
       <c r="H77" t="n">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="I77" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="M77" t="n">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="N77" t="n">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="O77" t="n">
         <v>3</v>
@@ -4408,10 +4408,10 @@
         <v>0.78</v>
       </c>
       <c r="H78" t="n">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="I78" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4420,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="M78" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="N78" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="O78" t="n">
         <v>5</v>
@@ -4459,10 +4459,10 @@
         <v>0.99</v>
       </c>
       <c r="H79" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I79" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="J79" t="n">
         <v>2</v>
@@ -4471,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="M79" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="N79" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -4510,10 +4510,10 @@
         <v>1.62</v>
       </c>
       <c r="H80" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I80" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="N80" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O80" t="n">
         <v>3</v>
@@ -4561,10 +4561,10 @@
         <v>0.97</v>
       </c>
       <c r="H81" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="I81" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4573,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M81" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="O81" t="n">
         <v>1</v>
@@ -4612,28 +4612,28 @@
         <v>1.74</v>
       </c>
       <c r="H82" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I82" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M82" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="N82" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4663,10 +4663,10 @@
         <v>0.31</v>
       </c>
       <c r="H83" t="n">
-        <v>2.29</v>
+        <v>1.99</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="M83" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N83" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="O83" t="n">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         <v>1.3</v>
       </c>
       <c r="H84" t="n">
-        <v>3.59</v>
+        <v>3.82</v>
       </c>
       <c r="I84" t="n">
         <v>0.93</v>
@@ -4726,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.51</v>
+        <v>0.28</v>
       </c>
       <c r="M84" t="n">
         <v>0.37</v>
       </c>
       <c r="N84" t="n">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="O84" t="n">
         <v>6</v>
@@ -4765,7 +4765,7 @@
         <v>1.36</v>
       </c>
       <c r="H85" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="I85" t="n">
         <v>1.53</v>
@@ -4777,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="M85" t="n">
         <v>0.17</v>
       </c>
       <c r="N85" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="O85" t="n">
         <v>4</v>
@@ -4816,10 +4816,10 @@
         <v>1.26</v>
       </c>
       <c r="H86" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="I86" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="N86" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
@@ -4867,10 +4867,10 @@
         <v>0.21</v>
       </c>
       <c r="H87" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I87" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N87" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="O87" t="n">
         <v>1</v>
@@ -4918,10 +4918,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I88" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="M88" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="N88" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="O88" t="n">
         <v>4</v>
@@ -4969,10 +4969,10 @@
         <v>1.81</v>
       </c>
       <c r="H89" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="I89" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="M89" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="N89" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="O89" t="n">
         <v>2</v>
@@ -5020,10 +5020,10 @@
         <v>0.74</v>
       </c>
       <c r="H90" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I90" t="n">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="M90" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="O90" t="n">
         <v>1</v>
@@ -5071,10 +5071,10 @@
         <v>2.34</v>
       </c>
       <c r="H91" t="n">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="I91" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5083,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N91" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="O91" t="n">
         <v>1</v>
@@ -5122,10 +5122,10 @@
         <v>1.65</v>
       </c>
       <c r="H92" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="I92" t="n">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="N92" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="O92" t="n">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>1.55</v>
       </c>
       <c r="H93" t="n">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="I93" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="M93" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="N93" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="O93" t="n">
         <v>2</v>
@@ -5224,10 +5224,10 @@
         <v>1.01</v>
       </c>
       <c r="H94" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="I94" t="n">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03</v>
+        <v>0.48</v>
       </c>
       <c r="O94" t="n">
         <v>3</v>
@@ -5275,10 +5275,10 @@
         <v>1.07</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="I95" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5287,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M95" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="N95" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="O95" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
         <v>0.13</v>
       </c>
       <c r="H96" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="I96" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N96" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="O96" t="n">
         <v>3</v>
@@ -5377,28 +5377,28 @@
         <v>1.56</v>
       </c>
       <c r="H97" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="I97" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -5428,10 +5428,10 @@
         <v>2.51</v>
       </c>
       <c r="H98" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="I98" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5440,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="M98" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="N98" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="O98" t="n">
         <v>3</v>
@@ -5479,10 +5479,10 @@
         <v>1.11</v>
       </c>
       <c r="H99" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="I99" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5491,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="M99" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="N99" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
@@ -5530,28 +5530,28 @@
         <v>1.86</v>
       </c>
       <c r="H100" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="I100" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="M100" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="N100" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5581,10 +5581,10 @@
         <v>0.66</v>
       </c>
       <c r="H101" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="I101" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5593,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="M101" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="N101" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="O101" t="n">
         <v>3</v>
@@ -5632,28 +5632,28 @@
         <v>2.61</v>
       </c>
       <c r="H102" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I102" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M102" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="N102" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="O102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -5683,10 +5683,10 @@
         <v>2.63</v>
       </c>
       <c r="H103" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="I103" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -5695,13 +5695,13 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="M103" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="N103" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
         <v>2</v>
@@ -5737,7 +5737,7 @@
         <v>0.7</v>
       </c>
       <c r="I104" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -5749,10 +5749,10 @@
         <v>0.87</v>
       </c>
       <c r="M104" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="N104" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="O104" t="n">
         <v>2</v>
@@ -5785,10 +5785,10 @@
         <v>1.4</v>
       </c>
       <c r="H105" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="I105" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="M105" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N105" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="O105" t="n">
         <v>2</v>
@@ -5839,7 +5839,7 @@
         <v>0.77</v>
       </c>
       <c r="I106" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5851,10 +5851,10 @@
         <v>0.06</v>
       </c>
       <c r="M106" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="N106" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -5887,10 +5887,10 @@
         <v>0.66</v>
       </c>
       <c r="H107" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="I107" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="M107" t="n">
         <v>0.04</v>
       </c>
       <c r="N107" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="O107" t="n">
         <v>2</v>
@@ -5938,10 +5938,10 @@
         <v>1.55</v>
       </c>
       <c r="H108" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="I108" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="M108" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="N108" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="O108" t="n">
         <v>2</v>
@@ -5989,10 +5989,10 @@
         <v>0.63</v>
       </c>
       <c r="H109" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="M109" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="O109" t="n">
         <v>3</v>
@@ -6040,10 +6040,10 @@
         <v>1.7</v>
       </c>
       <c r="H110" t="n">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="I110" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M110" t="n">
         <v>0.17</v>
       </c>
-      <c r="M110" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N110" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="O110" t="n">
         <v>4</v>
@@ -6091,10 +6091,10 @@
         <v>1.62</v>
       </c>
       <c r="H111" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="I111" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6103,13 +6103,13 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="M111" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N111" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="O111" t="n">
         <v>2</v>
@@ -6142,10 +6142,10 @@
         <v>0.33</v>
       </c>
       <c r="H112" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="I112" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="M112" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="N112" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="O112" t="n">
         <v>3</v>
@@ -6193,28 +6193,28 @@
         <v>1.26</v>
       </c>
       <c r="H113" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="I113" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="M113" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="N113" t="n">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -6244,28 +6244,28 @@
         <v>0.95</v>
       </c>
       <c r="H114" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="I114" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="M114" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="N114" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -6295,10 +6295,10 @@
         <v>1.1</v>
       </c>
       <c r="H115" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="I115" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="M115" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="N115" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         <v>1.32</v>
       </c>
       <c r="H116" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I116" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N116" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="O116" t="n">
         <v>5</v>
@@ -6397,10 +6397,10 @@
         <v>2.92</v>
       </c>
       <c r="H117" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="I117" t="n">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6409,13 +6409,13 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M117" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="N117" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="O117" t="n">
         <v>1</v>
@@ -6448,10 +6448,10 @@
         <v>2.51</v>
       </c>
       <c r="H118" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="I118" t="n">
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -6460,13 +6460,13 @@
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M118" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="N118" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="O118" t="n">
         <v>2</v>
@@ -6499,10 +6499,10 @@
         <v>0.8</v>
       </c>
       <c r="H119" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I119" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M119" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="N119" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="O119" t="n">
         <v>1</v>
@@ -6550,10 +6550,10 @@
         <v>3.15</v>
       </c>
       <c r="H120" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="I120" t="n">
-        <v>4.07</v>
+        <v>3.85</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6562,13 +6562,13 @@
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="M120" t="n">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="N120" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="O120" t="n">
         <v>2</v>
@@ -6601,10 +6601,10 @@
         <v>0.86</v>
       </c>
       <c r="H121" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I121" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M121" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="N121" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="O121" t="n">
         <v>2</v>
@@ -6652,10 +6652,10 @@
         <v>1.01</v>
       </c>
       <c r="H122" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="M122" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="N122" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O122" t="n">
         <v>2</v>
@@ -6703,25 +6703,25 @@
         <v>1.06</v>
       </c>
       <c r="H123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N123" t="n">
         <v>1.2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N123" t="n">
-        <v>1.36</v>
       </c>
       <c r="O123" t="n">
         <v>5</v>
@@ -6754,10 +6754,10 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="I124" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="M124" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N124" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="O124" t="n">
         <v>2</v>
@@ -6805,10 +6805,10 @@
         <v>0.59</v>
       </c>
       <c r="H125" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -6817,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M125" t="n">
         <v>0.03</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>3.6</v>
       </c>
       <c r="H126" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="I126" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -6868,13 +6868,13 @@
         <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="M126" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="N126" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O126" t="n">
         <v>5</v>
@@ -6907,7 +6907,7 @@
         <v>3.29</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I127" t="n">
         <v>3.18</v>
@@ -6919,13 +6919,13 @@
         <v>3</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M127" t="n">
         <v>0.11</v>
       </c>
       <c r="N127" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="O127" t="n">
         <v>3</v>
@@ -6958,10 +6958,10 @@
         <v>1.24</v>
       </c>
       <c r="H128" t="n">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="I128" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="M128" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="N128" t="n">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="O128" t="n">
         <v>3</v>
@@ -7009,10 +7009,10 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="n">
-        <v>3.16</v>
+        <v>3.06</v>
       </c>
       <c r="I129" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="J129" t="n">
         <v>2</v>
@@ -7021,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="M129" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="N129" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -7060,10 +7060,10 @@
         <v>0.58</v>
       </c>
       <c r="H130" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="I130" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7072,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="M130" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="N130" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="O130" t="n">
         <v>4</v>
@@ -7111,10 +7111,10 @@
         <v>1.58</v>
       </c>
       <c r="H131" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="I131" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7123,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M131" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N131" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="O131" t="n">
         <v>2</v>
@@ -7162,7 +7162,7 @@
         <v>1.64</v>
       </c>
       <c r="H132" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="I132" t="n">
         <v>1.18</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M132" t="n">
         <v>0.46</v>
       </c>
       <c r="N132" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
@@ -7213,10 +7213,10 @@
         <v>3.1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I133" t="n">
-        <v>3.72</v>
+        <v>4.03</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="M133" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
       <c r="N133" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="O133" t="n">
         <v>3</v>
@@ -7264,10 +7264,10 @@
         <v>0.22</v>
       </c>
       <c r="H134" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="I134" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -7276,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="O134" t="n">
         <v>1</v>
@@ -7315,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7327,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="M135" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
       <c r="N135" t="n">
-        <v>0.96</v>
+        <v>0.65</v>
       </c>
       <c r="O135" t="n">
         <v>3</v>
@@ -7366,10 +7366,10 @@
         <v>0.78</v>
       </c>
       <c r="H136" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="I136" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M136" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="N136" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="O136" t="n">
         <v>4</v>
@@ -7417,10 +7417,10 @@
         <v>1.04</v>
       </c>
       <c r="H137" t="n">
-        <v>2.53</v>
+        <v>2.31</v>
       </c>
       <c r="I137" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M137" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N137" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="O137" t="n">
         <v>2</v>
@@ -7468,10 +7468,10 @@
         <v>1.99</v>
       </c>
       <c r="H138" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="I138" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="M138" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="N138" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="O138" t="n">
         <v>6</v>
@@ -7519,10 +7519,10 @@
         <v>5.5</v>
       </c>
       <c r="H139" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="I139" t="n">
-        <v>5.18</v>
+        <v>4.81</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="M139" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N139" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="O139" t="n">
         <v>5</v>
@@ -7570,10 +7570,10 @@
         <v>0.87</v>
       </c>
       <c r="H140" t="n">
-        <v>3.11</v>
+        <v>2.96</v>
       </c>
       <c r="I140" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="M140" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="N140" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O140" t="n">
         <v>1</v>
@@ -7621,10 +7621,10 @@
         <v>1.47</v>
       </c>
       <c r="H141" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I141" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -7633,13 +7633,13 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="N141" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O141" t="n">
         <v>4</v>
@@ -7672,10 +7672,10 @@
         <v>0.33</v>
       </c>
       <c r="H142" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="I142" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7684,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="N142" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -7723,10 +7723,10 @@
         <v>1.48</v>
       </c>
       <c r="H143" t="n">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="I143" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -7735,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="M143" t="n">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="N143" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="O143" t="n">
         <v>6</v>
@@ -7774,10 +7774,10 @@
         <v>1.45</v>
       </c>
       <c r="H144" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I144" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="M144" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N144" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="O144" t="n">
         <v>4</v>
@@ -7825,10 +7825,10 @@
         <v>0.83</v>
       </c>
       <c r="H145" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I145" t="n">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -7837,13 +7837,13 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="O145" t="n">
         <v>5</v>
@@ -7876,10 +7876,10 @@
         <v>2.03</v>
       </c>
       <c r="H146" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I146" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -7888,13 +7888,13 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M146" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="N146" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="O146" t="n">
         <v>2</v>
@@ -7927,10 +7927,10 @@
         <v>3.4</v>
       </c>
       <c r="H147" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="I147" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -7939,13 +7939,13 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="M147" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N147" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="O147" t="n">
         <v>1</v>
@@ -7978,10 +7978,10 @@
         <v>1.54</v>
       </c>
       <c r="H148" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="I148" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="M148" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="O148" t="n">
         <v>4</v>
@@ -8029,10 +8029,10 @@
         <v>2.83</v>
       </c>
       <c r="H149" t="n">
-        <v>2.57</v>
+        <v>2.28</v>
       </c>
       <c r="I149" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -8041,13 +8041,13 @@
         <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="M149" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="N149" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="O149" t="n">
         <v>5</v>
@@ -8080,10 +8080,10 @@
         <v>1.47</v>
       </c>
       <c r="H150" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="I150" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="N150" t="n">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="O150" t="n">
         <v>3</v>
@@ -8131,10 +8131,10 @@
         <v>0.09</v>
       </c>
       <c r="H151" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="I151" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N151" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="O151" t="n">
         <v>0</v>
@@ -8182,10 +8182,10 @@
         <v>1.22</v>
       </c>
       <c r="H152" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="I152" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -8194,13 +8194,13 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="M152" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="N152" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="O152" t="n">
         <v>4</v>
@@ -8233,10 +8233,10 @@
         <v>0.19</v>
       </c>
       <c r="H153" t="n">
-        <v>3.99</v>
+        <v>4.13</v>
       </c>
       <c r="I153" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="J153" t="n">
         <v>2</v>
@@ -8245,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="M153" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="N153" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="O153" t="n">
         <v>2</v>
@@ -8284,10 +8284,10 @@
         <v>0.42</v>
       </c>
       <c r="H154" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="I154" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="N154" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="O154" t="n">
         <v>3</v>
@@ -8335,10 +8335,10 @@
         <v>1.2</v>
       </c>
       <c r="H155" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I155" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M155" t="n">
         <v>0.2</v>
       </c>
-      <c r="M155" t="n">
-        <v>0.05</v>
-      </c>
       <c r="N155" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="O155" t="n">
         <v>3</v>
@@ -8386,28 +8386,28 @@
         <v>2.31</v>
       </c>
       <c r="H156" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="I156" t="n">
-        <v>2.24</v>
+        <v>2.41</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N156" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="O156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -8437,10 +8437,10 @@
         <v>1.65</v>
       </c>
       <c r="H157" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="I157" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -8449,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="N157" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="O157" t="n">
         <v>3</v>
@@ -8488,10 +8488,10 @@
         <v>2.08</v>
       </c>
       <c r="H158" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="M158" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="N158" t="n">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="O158" t="n">
         <v>2</v>
@@ -8539,28 +8539,28 @@
         <v>2.44</v>
       </c>
       <c r="H159" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="I159" t="n">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M159" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="N159" t="n">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="O159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -8590,10 +8590,10 @@
         <v>2.06</v>
       </c>
       <c r="H160" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="I160" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -8602,13 +8602,13 @@
         <v>1</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="M160" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="N160" t="n">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
       <c r="O160" t="n">
         <v>1</v>
@@ -8641,10 +8641,10 @@
         <v>1.03</v>
       </c>
       <c r="H161" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="I161" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="M161" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="N161" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="O161" t="n">
         <v>3</v>
@@ -8695,7 +8695,7 @@
         <v>0.88</v>
       </c>
       <c r="I162" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0.16</v>
       </c>
       <c r="M162" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="N162" t="n">
         <v>0.32</v>
@@ -8743,10 +8743,10 @@
         <v>3.01</v>
       </c>
       <c r="H163" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="I163" t="n">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -8755,13 +8755,13 @@
         <v>2</v>
       </c>
       <c r="L163" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="M163" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="N163" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="O163" t="n">
         <v>4</v>
@@ -8794,10 +8794,10 @@
         <v>2.33</v>
       </c>
       <c r="H164" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="I164" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -8806,13 +8806,13 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M164" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="N164" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="O164" t="n">
         <v>4</v>
@@ -8845,10 +8845,10 @@
         <v>0.96</v>
       </c>
       <c r="H165" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="I165" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -8857,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="N165" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O165" t="n">
         <v>2</v>
@@ -8896,10 +8896,10 @@
         <v>1.28</v>
       </c>
       <c r="H166" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -8908,13 +8908,13 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="M166" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="N166" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0.26</v>
       </c>
       <c r="H167" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I167" t="n">
         <v>0.27</v>
@@ -8959,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M167" t="n">
         <v>0.01</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O167" t="n">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>1.11</v>
       </c>
       <c r="H168" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="I168" t="n">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -9010,13 +9010,13 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N168" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="O168" t="n">
         <v>3</v>
@@ -9049,10 +9049,10 @@
         <v>1.63</v>
       </c>
       <c r="H169" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="I169" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -9061,13 +9061,13 @@
         <v>1</v>
       </c>
       <c r="L169" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="N169" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="O169" t="n">
         <v>2</v>
@@ -9100,10 +9100,10 @@
         <v>6.27</v>
       </c>
       <c r="H170" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="I170" t="n">
-        <v>5.6</v>
+        <v>5.01</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>3</v>
       </c>
       <c r="L170" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="M170" t="n">
-        <v>0.67</v>
+        <v>1.26</v>
       </c>
       <c r="N170" t="n">
-        <v>0.82</v>
+        <v>1.34</v>
       </c>
       <c r="O170" t="n">
         <v>6</v>
@@ -9151,10 +9151,10 @@
         <v>0.45</v>
       </c>
       <c r="H171" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="I171" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="M171" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="N171" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>1.78</v>
       </c>
       <c r="H172" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="I172" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -9214,13 +9214,13 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M172" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="N172" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="O172" t="n">
         <v>3</v>
@@ -9253,25 +9253,25 @@
         <v>0.34</v>
       </c>
       <c r="H173" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="I173" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0.33</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.55</v>
-      </c>
       <c r="M173" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N173" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="O173" t="n">
         <v>4</v>
@@ -9304,10 +9304,10 @@
         <v>0.66</v>
       </c>
       <c r="H174" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="I174" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -9316,13 +9316,13 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="M174" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="N174" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="O174" t="n">
         <v>1</v>
@@ -9355,28 +9355,28 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="n">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="I175" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M175" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N175" t="n">
         <v>0.14</v>
       </c>
-      <c r="N175" t="n">
-        <v>0.19</v>
-      </c>
       <c r="O175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -9406,10 +9406,10 @@
         <v>0.9</v>
       </c>
       <c r="H176" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="I176" t="n">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="M176" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N176" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="O176" t="n">
         <v>1</v>
@@ -9457,10 +9457,10 @@
         <v>1.84</v>
       </c>
       <c r="H177" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="I177" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -9469,13 +9469,13 @@
         <v>1</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="N177" t="n">
-        <v>0.17</v>
+        <v>0.61</v>
       </c>
       <c r="O177" t="n">
         <v>0</v>
@@ -9508,28 +9508,28 @@
         <v>0.44</v>
       </c>
       <c r="H178" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="I178" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M178" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="N178" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="O178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -9559,7 +9559,7 @@
         <v>0.15</v>
       </c>
       <c r="H179" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="I179" t="n">
         <v>0.14</v>
@@ -9571,13 +9571,13 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="M179" t="n">
         <v>0.01</v>
       </c>
       <c r="N179" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="O179" t="n">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         <v>1.07</v>
       </c>
       <c r="H180" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="I180" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -9622,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="M180" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="N180" t="n">
-        <v>0.41</v>
+        <v>0.67</v>
       </c>
       <c r="O180" t="n">
         <v>0</v>
@@ -9661,10 +9661,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="I181" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -9673,13 +9673,13 @@
         <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="M181" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N181" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O181" t="n">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>1.61</v>
       </c>
       <c r="H182" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I182" t="n">
         <v>1.21</v>
@@ -9724,13 +9724,13 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M182" t="n">
         <v>0.4</v>
       </c>
       <c r="N182" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="O182" t="n">
         <v>2</v>
@@ -9763,10 +9763,10 @@
         <v>1.98</v>
       </c>
       <c r="H183" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="I183" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -9775,13 +9775,13 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M183" t="n">
         <v>0.31</v>
       </c>
-      <c r="M183" t="n">
-        <v>0.44</v>
-      </c>
       <c r="N183" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O183" t="n">
         <v>4</v>
@@ -9814,10 +9814,10 @@
         <v>1.27</v>
       </c>
       <c r="H184" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="I184" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -9826,13 +9826,13 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="M184" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="N184" t="n">
-        <v>0.66</v>
+        <v>0.23</v>
       </c>
       <c r="O184" t="n">
         <v>2</v>
@@ -9865,10 +9865,10 @@
         <v>0.72</v>
       </c>
       <c r="H185" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I185" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="M185" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="N185" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="O185" t="n">
         <v>3</v>
@@ -9916,10 +9916,10 @@
         <v>3.15</v>
       </c>
       <c r="H186" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I186" t="n">
-        <v>3.56</v>
+        <v>3.37</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -9928,13 +9928,13 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M186" t="n">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="N186" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="O186" t="n">
         <v>5</v>
@@ -9967,10 +9967,10 @@
         <v>1.13</v>
       </c>
       <c r="H187" t="n">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="I187" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -9979,13 +9979,13 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="M187" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N187" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="O187" t="n">
         <v>3</v>
@@ -10018,10 +10018,10 @@
         <v>2.03</v>
       </c>
       <c r="H188" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="I188" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="M188" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="N188" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="O188" t="n">
         <v>1</v>
@@ -10069,10 +10069,10 @@
         <v>1.92</v>
       </c>
       <c r="H189" t="n">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I189" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -10081,13 +10081,13 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M189" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="O189" t="n">
         <v>2</v>
@@ -10120,10 +10120,10 @@
         <v>1.92</v>
       </c>
       <c r="H190" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I190" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -10132,13 +10132,13 @@
         <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M190" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="N190" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="O190" t="n">
         <v>3</v>
@@ -10171,10 +10171,10 @@
         <v>0.43</v>
       </c>
       <c r="H191" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="I191" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -10183,10 +10183,10 @@
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="M191" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="N191" t="n">
         <v>0.9399999999999999</v>
@@ -10222,10 +10222,10 @@
         <v>0.71</v>
       </c>
       <c r="H192" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -10234,13 +10234,13 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="M192" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="N192" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="O192" t="n">
         <v>1</v>
@@ -10273,28 +10273,28 @@
         <v>0.88</v>
       </c>
       <c r="H193" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="I193" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M193" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N193" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="O193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -10324,10 +10324,10 @@
         <v>1.24</v>
       </c>
       <c r="H194" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="I194" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -10339,10 +10339,10 @@
         <v>0.01</v>
       </c>
       <c r="M194" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="N194" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="O194" t="n">
         <v>2</v>
@@ -10375,10 +10375,10 @@
         <v>1.37</v>
       </c>
       <c r="H195" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I195" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -10387,13 +10387,13 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="M195" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="N195" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="O195" t="n">
         <v>5</v>
@@ -10426,10 +10426,10 @@
         <v>4.46</v>
       </c>
       <c r="H196" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I196" t="n">
-        <v>3.59</v>
+        <v>3.96</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -10438,13 +10438,13 @@
         <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M196" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="N196" t="n">
-        <v>0.9</v>
+        <v>0.51</v>
       </c>
       <c r="O196" t="n">
         <v>4</v>
@@ -10477,10 +10477,10 @@
         <v>2.53</v>
       </c>
       <c r="H197" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="I197" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -10489,13 +10489,13 @@
         <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="M197" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="N197" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O197" t="n">
         <v>2</v>
@@ -10528,10 +10528,10 @@
         <v>1.59</v>
       </c>
       <c r="H198" t="n">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="I198" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="J198" t="n">
         <v>2</v>
@@ -10540,13 +10540,13 @@
         <v>1</v>
       </c>
       <c r="L198" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="M198" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="O198" t="n">
         <v>1</v>
@@ -10579,10 +10579,10 @@
         <v>1.06</v>
       </c>
       <c r="H199" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -10591,13 +10591,13 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M199" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N199" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="O199" t="n">
         <v>3</v>
@@ -10630,10 +10630,10 @@
         <v>2.13</v>
       </c>
       <c r="H200" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="I200" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -10642,13 +10642,13 @@
         <v>1</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="M200" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="O200" t="n">
         <v>3</v>
@@ -10681,10 +10681,10 @@
         <v>2.21</v>
       </c>
       <c r="H201" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I201" t="n">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -10693,13 +10693,13 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="O201" t="n">
         <v>4</v>
@@ -10732,10 +10732,10 @@
         <v>1.18</v>
       </c>
       <c r="H202" t="n">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="I202" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>1</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="M202" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="O202" t="n">
         <v>3</v>
@@ -10783,10 +10783,10 @@
         <v>1.99</v>
       </c>
       <c r="H203" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I203" t="n">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -10795,13 +10795,13 @@
         <v>1</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="M203" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="N203" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="O203" t="n">
         <v>1</v>
@@ -10834,28 +10834,28 @@
         <v>1.97</v>
       </c>
       <c r="H204" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I204" t="n">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="M204" t="n">
-        <v>0.53</v>
+        <v>1.01</v>
       </c>
       <c r="N204" t="n">
-        <v>0.96</v>
+        <v>1.4</v>
       </c>
       <c r="O204" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -10885,28 +10885,28 @@
         <v>0.78</v>
       </c>
       <c r="H205" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="I205" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="M205" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="N205" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="O205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -10936,10 +10936,10 @@
         <v>1.21</v>
       </c>
       <c r="H206" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="I206" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -10948,13 +10948,13 @@
         <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="N206" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="O206" t="n">
         <v>1</v>
@@ -10987,10 +10987,10 @@
         <v>1.82</v>
       </c>
       <c r="H207" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="I207" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="M207" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="N207" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="O207" t="n">
         <v>2</v>
@@ -11038,10 +11038,10 @@
         <v>1.62</v>
       </c>
       <c r="H208" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I208" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -11050,13 +11050,13 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="M208" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="O208" t="n">
         <v>3</v>
@@ -11092,7 +11092,7 @@
         <v>0.39</v>
       </c>
       <c r="I209" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -11104,10 +11104,10 @@
         <v>0.11</v>
       </c>
       <c r="M209" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="N209" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="O209" t="n">
         <v>2</v>
@@ -11140,10 +11140,10 @@
         <v>1.54</v>
       </c>
       <c r="H210" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="I210" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -11152,13 +11152,13 @@
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="M210" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="N210" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="O210" t="n">
         <v>4</v>
@@ -11191,7 +11191,7 @@
         <v>1.04</v>
       </c>
       <c r="H211" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="I211" t="n">
         <v>0.93</v>
@@ -11203,13 +11203,13 @@
         <v>0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="M211" t="n">
         <v>0.11</v>
       </c>
       <c r="N211" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O211" t="n">
         <v>4</v>
@@ -11245,25 +11245,25 @@
         <v>1.07</v>
       </c>
       <c r="I212" t="n">
-        <v>5.15</v>
+        <v>5.26</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" t="n">
         <v>0.35</v>
       </c>
       <c r="M212" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="N212" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="O212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -11293,10 +11293,10 @@
         <v>2.19</v>
       </c>
       <c r="H213" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I213" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="M213" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="O213" t="n">
         <v>1</v>
@@ -11344,10 +11344,10 @@
         <v>2.05</v>
       </c>
       <c r="H214" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I214" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -11359,10 +11359,10 @@
         <v>0.01</v>
       </c>
       <c r="M214" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="N214" t="n">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="O214" t="n">
         <v>4</v>
@@ -11395,10 +11395,10 @@
         <v>1.32</v>
       </c>
       <c r="H215" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I215" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -11407,13 +11407,13 @@
         <v>1</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M215" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="N215" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="O215" t="n">
         <v>1</v>
@@ -11446,10 +11446,10 @@
         <v>1.13</v>
       </c>
       <c r="H216" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="I216" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -11458,13 +11458,13 @@
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="M216" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="N216" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="O216" t="n">
         <v>5</v>
@@ -11497,10 +11497,10 @@
         <v>3.06</v>
       </c>
       <c r="H217" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I217" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -11509,13 +11509,13 @@
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M217" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="N217" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="O217" t="n">
         <v>6</v>
@@ -11548,10 +11548,10 @@
         <v>1.93</v>
       </c>
       <c r="H218" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I218" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
@@ -11560,13 +11560,13 @@
         <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M218" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="N218" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="O218" t="n">
         <v>2</v>
@@ -11599,10 +11599,10 @@
         <v>0.89</v>
       </c>
       <c r="H219" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="I219" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="J219" t="n">
         <v>2</v>
@@ -11611,13 +11611,13 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="M219" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="N219" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="O219" t="n">
         <v>3</v>
@@ -11650,10 +11650,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>2.49</v>
+        <v>2.78</v>
       </c>
       <c r="I220" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -11662,16 +11662,526 @@
         <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="M220" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N220" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="O220" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>4</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O230" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagueStats/leagueStats_ENG_minute.xlsx
+++ b/leagueStats/leagueStats_ENG_minute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O240"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
         <v>0.44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -583,10 +583,10 @@
         <v>0.47</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -634,28 +634,28 @@
         <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="I4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="M4" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="N4" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -685,28 +685,28 @@
         <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="M5" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -736,10 +736,10 @@
         <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I6" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I7" t="n">
         <v>1.54</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M7" t="n">
         <v>0.32</v>
       </c>
       <c r="N7" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
@@ -838,28 +838,28 @@
         <v>2.03</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="N8" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -889,10 +889,10 @@
         <v>1.17</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="I9" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="N9" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -940,10 +940,10 @@
         <v>0.77</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="I10" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M10" t="n">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="N10" t="n">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
@@ -991,10 +991,10 @@
         <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="M11" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="N11" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>0.87</v>
       </c>
       <c r="H12" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I12" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M12" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -1093,10 +1093,10 @@
         <v>1.43</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
@@ -1144,10 +1144,10 @@
         <v>1.39</v>
       </c>
       <c r="H14" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="I14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="M14" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="N14" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -1195,10 +1195,10 @@
         <v>0.61</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I15" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -1246,28 +1246,28 @@
         <v>0.29</v>
       </c>
       <c r="H16" t="n">
-        <v>2.41</v>
+        <v>1.48</v>
       </c>
       <c r="I16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.93</v>
+        <v>1.86</v>
       </c>
       <c r="M16" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N16" t="n">
-        <v>1.06</v>
+        <v>1.99</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1297,10 +1297,10 @@
         <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M17" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="N17" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="N18" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O18" t="n">
         <v>4</v>
@@ -1399,10 +1399,10 @@
         <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N19" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -1450,10 +1450,10 @@
         <v>0.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="I20" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N20" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -1501,10 +1501,10 @@
         <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="I21" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="M21" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="N21" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="O21" t="n">
         <v>8</v>
@@ -1552,10 +1552,10 @@
         <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="M22" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="N22" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -1603,10 +1603,10 @@
         <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="I23" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1615,13 +1615,13 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="M23" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="N23" t="n">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="O23" t="n">
         <v>3</v>
@@ -1654,28 +1654,28 @@
         <v>2.49</v>
       </c>
       <c r="H24" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1705,10 +1705,10 @@
         <v>0.95</v>
       </c>
       <c r="H25" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="I25" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
@@ -1756,28 +1756,28 @@
         <v>1.55</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I26" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="M26" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1807,28 +1807,28 @@
         <v>0.77</v>
       </c>
       <c r="H27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I27" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N27" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1858,10 +1858,10 @@
         <v>3.01</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="N28" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
@@ -1909,10 +1909,10 @@
         <v>0.54</v>
       </c>
       <c r="H29" t="n">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="I29" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N29" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -1960,10 +1960,10 @@
         <v>1.79</v>
       </c>
       <c r="H30" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="I30" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="M30" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="N30" t="n">
         <v>0.62</v>
@@ -2011,28 +2011,28 @@
         <v>1.27</v>
       </c>
       <c r="H31" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2062,10 +2062,10 @@
         <v>0.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="I32" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="M32" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="N32" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="O32" t="n">
         <v>4</v>
@@ -2113,28 +2113,28 @@
         <v>0.78</v>
       </c>
       <c r="H33" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="I33" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="M33" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="N33" t="n">
-        <v>0.41</v>
+        <v>1.13</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2164,10 +2164,10 @@
         <v>0.35</v>
       </c>
       <c r="H34" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2215,28 +2215,28 @@
         <v>1.23</v>
       </c>
       <c r="H35" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="I35" t="n">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="N35" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2266,10 +2266,10 @@
         <v>0.76</v>
       </c>
       <c r="H36" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="I36" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N36" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="O36" t="n">
         <v>2</v>
@@ -2317,10 +2317,10 @@
         <v>0.44</v>
       </c>
       <c r="H37" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="I37" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="N37" t="n">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -2368,10 +2368,10 @@
         <v>0.96</v>
       </c>
       <c r="H38" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M38" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="N38" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="O38" t="n">
         <v>2</v>
@@ -2419,28 +2419,28 @@
         <v>2.67</v>
       </c>
       <c r="H39" t="n">
-        <v>1.09</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1</v>
+        <v>1.23</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2470,7 +2470,7 @@
         <v>0.74</v>
       </c>
       <c r="H40" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="I40" t="n">
         <v>0.6899999999999999</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M40" t="n">
         <v>0.05</v>
       </c>
       <c r="N40" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         <v>1.52</v>
       </c>
       <c r="H41" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="I41" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="M41" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
@@ -2572,28 +2572,28 @@
         <v>0.51</v>
       </c>
       <c r="H42" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="I42" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="M42" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="N42" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2623,28 +2623,28 @@
         <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="I43" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="M43" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="N43" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2674,10 +2674,10 @@
         <v>1.54</v>
       </c>
       <c r="H44" t="n">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
       <c r="I44" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="M44" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="N44" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="O44" t="n">
         <v>4</v>
@@ -2725,10 +2725,10 @@
         <v>1.1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="M45" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="N45" t="n">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
@@ -2776,10 +2776,10 @@
         <v>1.08</v>
       </c>
       <c r="H46" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="I46" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="M46" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="N46" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="O46" t="n">
         <v>3</v>
@@ -2827,10 +2827,10 @@
         <v>1.69</v>
       </c>
       <c r="H47" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="M47" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="N47" t="n">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
@@ -2878,28 +2878,28 @@
         <v>0.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>3.81</v>
       </c>
       <c r="I48" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="N48" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>2.19</v>
       </c>
       <c r="H49" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="I49" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="M49" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="N49" t="n">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
@@ -2980,28 +2980,28 @@
         <v>1.42</v>
       </c>
       <c r="H50" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="I50" t="n">
-        <v>1.24</v>
+        <v>0.43</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="M50" t="n">
-        <v>0.18</v>
+        <v>0.99</v>
       </c>
       <c r="N50" t="n">
-        <v>0.82</v>
+        <v>1.7</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3031,10 +3031,10 @@
         <v>0.67</v>
       </c>
       <c r="H51" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="I51" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="M51" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="O51" t="n">
         <v>3</v>
@@ -3085,7 +3085,7 @@
         <v>4.78</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         <v>0.03</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="N52" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="O52" t="n">
         <v>5</v>
@@ -3133,10 +3133,10 @@
         <v>0.99</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I53" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="M53" t="n">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N53" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="O53" t="n">
         <v>2</v>
@@ -3184,28 +3184,28 @@
         <v>1.11</v>
       </c>
       <c r="H54" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="I54" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
       <c r="M54" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="N54" t="n">
-        <v>1.53</v>
+        <v>2.19</v>
       </c>
       <c r="O54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -3235,10 +3235,10 @@
         <v>0.93</v>
       </c>
       <c r="H55" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="I55" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="N55" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="O55" t="n">
         <v>3</v>
@@ -3286,28 +3286,28 @@
         <v>0.91</v>
       </c>
       <c r="H56" t="n">
-        <v>1.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.06</v>
+        <v>0.89</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="N56" t="n">
-        <v>0.86</v>
+        <v>1.64</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3337,28 +3337,28 @@
         <v>1.33</v>
       </c>
       <c r="H57" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0.12</v>
+        <v>0.58</v>
       </c>
       <c r="N57" t="n">
-        <v>0.23</v>
+        <v>0.59</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3388,25 +3388,25 @@
         <v>2.54</v>
       </c>
       <c r="H58" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="I58" t="n">
-        <v>2.01</v>
+        <v>1.08</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="M58" t="n">
-        <v>0.53</v>
+        <v>1.46</v>
       </c>
       <c r="N58" t="n">
-        <v>0.65</v>
+        <v>1.66</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
@@ -3439,28 +3439,28 @@
         <v>0.82</v>
       </c>
       <c r="H59" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M59" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="N59" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3490,10 +3490,10 @@
         <v>4.71</v>
       </c>
       <c r="H60" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I60" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N60" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -3541,10 +3541,10 @@
         <v>0.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="I61" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="M61" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="O61" t="n">
         <v>4</v>
@@ -3592,28 +3592,28 @@
         <v>0.65</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="I62" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="M62" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="N62" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3643,28 +3643,28 @@
         <v>1.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="I63" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="M63" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="N63" t="n">
-        <v>1.19</v>
+        <v>1.68</v>
       </c>
       <c r="O63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -3694,10 +3694,10 @@
         <v>1.39</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="I64" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M64" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="N64" t="n">
         <v>0.23</v>
@@ -3748,25 +3748,25 @@
         <v>0.65</v>
       </c>
       <c r="I65" t="n">
-        <v>2.47</v>
+        <v>1.7</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="M65" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="N65" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3796,10 +3796,10 @@
         <v>2.16</v>
       </c>
       <c r="H66" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I66" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="N66" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>2.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="I67" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="M67" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="N67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="O67" t="n">
         <v>4</v>
@@ -3898,28 +3898,28 @@
         <v>0.65</v>
       </c>
       <c r="H68" t="n">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="I68" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M68" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="N68" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3952,7 +3952,7 @@
         <v>0.55</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3964,10 +3964,10 @@
         <v>0.05</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="N69" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4000,10 +4000,10 @@
         <v>1.34</v>
       </c>
       <c r="H70" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I70" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M70" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="N70" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O70" t="n">
         <v>5</v>
@@ -4051,10 +4051,10 @@
         <v>0.87</v>
       </c>
       <c r="H71" t="n">
-        <v>2.39</v>
+        <v>2.31</v>
       </c>
       <c r="I71" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="M71" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="N71" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="O71" t="n">
         <v>2</v>
@@ -4102,28 +4102,28 @@
         <v>0.71</v>
       </c>
       <c r="H72" t="n">
-        <v>1.79</v>
+        <v>0.97</v>
       </c>
       <c r="I72" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.03</v>
+        <v>0.85</v>
       </c>
       <c r="M72" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="N72" t="n">
-        <v>0.25</v>
+        <v>1.09</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4153,28 +4153,28 @@
         <v>1.68</v>
       </c>
       <c r="H73" t="n">
-        <v>1.77</v>
+        <v>1.05</v>
       </c>
       <c r="I73" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="M73" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N73" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -4204,10 +4204,10 @@
         <v>1.74</v>
       </c>
       <c r="H74" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="I74" t="n">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="M74" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="N74" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="O74" t="n">
         <v>2</v>
@@ -4255,10 +4255,10 @@
         <v>0.86</v>
       </c>
       <c r="H75" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="I75" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4267,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="M75" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="O75" t="n">
         <v>3</v>
@@ -4306,10 +4306,10 @@
         <v>1.12</v>
       </c>
       <c r="H76" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4318,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="M76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="N76" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="O76" t="n">
         <v>1</v>
@@ -4357,28 +4357,28 @@
         <v>3.21</v>
       </c>
       <c r="H77" t="n">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="I77" t="n">
-        <v>2.99</v>
+        <v>2.12</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="M77" t="n">
-        <v>0.22</v>
+        <v>1.09</v>
       </c>
       <c r="N77" t="n">
-        <v>0.48</v>
+        <v>1.45</v>
       </c>
       <c r="O77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4408,10 +4408,10 @@
         <v>0.78</v>
       </c>
       <c r="H78" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="I78" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4420,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M78" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="N78" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="O78" t="n">
         <v>5</v>
@@ -4459,28 +4459,28 @@
         <v>0.99</v>
       </c>
       <c r="H79" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="I79" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.22</v>
+        <v>0.59</v>
       </c>
       <c r="M79" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="N79" t="n">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -4510,10 +4510,10 @@
         <v>1.62</v>
       </c>
       <c r="H80" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I80" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -4522,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="M80" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="O80" t="n">
         <v>3</v>
@@ -4561,10 +4561,10 @@
         <v>0.97</v>
       </c>
       <c r="H81" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4573,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="M81" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="N81" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="O81" t="n">
         <v>1</v>
@@ -4612,10 +4612,10 @@
         <v>1.74</v>
       </c>
       <c r="H82" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="I82" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4624,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M82" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="N82" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="O82" t="n">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         <v>0.31</v>
       </c>
       <c r="H83" t="n">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="I83" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="M83" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N83" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="O83" t="n">
         <v>2</v>
@@ -4714,10 +4714,10 @@
         <v>1.3</v>
       </c>
       <c r="H84" t="n">
-        <v>3.82</v>
+        <v>3.28</v>
       </c>
       <c r="I84" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4726,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.28</v>
+        <v>0.82</v>
       </c>
       <c r="M84" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="N84" t="n">
-        <v>0.64</v>
+        <v>1.12</v>
       </c>
       <c r="O84" t="n">
         <v>6</v>
@@ -4765,10 +4765,10 @@
         <v>1.36</v>
       </c>
       <c r="H85" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="I85" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4777,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="M85" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="N85" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="O85" t="n">
         <v>4</v>
@@ -4816,10 +4816,10 @@
         <v>1.26</v>
       </c>
       <c r="H86" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="I86" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="M86" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N86" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="O86" t="n">
         <v>2</v>
@@ -4867,10 +4867,10 @@
         <v>0.21</v>
       </c>
       <c r="H87" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="I87" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N87" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="O87" t="n">
         <v>1</v>
@@ -4918,10 +4918,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I88" t="n">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M88" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="N88" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="O88" t="n">
         <v>4</v>
@@ -4972,7 +4972,7 @@
         <v>1.43</v>
       </c>
       <c r="I89" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4984,10 +4984,10 @@
         <v>0.18</v>
       </c>
       <c r="M89" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="N89" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O89" t="n">
         <v>2</v>
@@ -5020,10 +5020,10 @@
         <v>0.74</v>
       </c>
       <c r="H90" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="I90" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="M90" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="N90" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="O90" t="n">
         <v>1</v>
@@ -5071,28 +5071,28 @@
         <v>2.34</v>
       </c>
       <c r="H91" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="I91" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="M91" t="n">
         <v>0.01</v>
       </c>
       <c r="N91" t="n">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -5122,10 +5122,10 @@
         <v>1.65</v>
       </c>
       <c r="H92" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I92" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="M92" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.51</v>
+        <v>1.16</v>
       </c>
       <c r="O92" t="n">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>1.55</v>
       </c>
       <c r="H93" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="I93" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="M93" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="N93" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="O93" t="n">
         <v>2</v>
@@ -5224,28 +5224,28 @@
         <v>1.01</v>
       </c>
       <c r="H94" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I94" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M94" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="N94" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="O94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -5275,10 +5275,10 @@
         <v>1.07</v>
       </c>
       <c r="H95" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="I95" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -5287,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="M95" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="N95" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="O95" t="n">
         <v>1</v>
@@ -5326,10 +5326,10 @@
         <v>0.13</v>
       </c>
       <c r="H96" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I96" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="O96" t="n">
         <v>3</v>
@@ -5377,10 +5377,10 @@
         <v>1.56</v>
       </c>
       <c r="H97" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="I97" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -5389,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="N97" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="O97" t="n">
         <v>1</v>
@@ -5428,10 +5428,10 @@
         <v>2.51</v>
       </c>
       <c r="H98" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5440,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="M98" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N98" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="O98" t="n">
         <v>3</v>
@@ -5479,28 +5479,28 @@
         <v>1.11</v>
       </c>
       <c r="H99" t="n">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="I99" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.43</v>
+        <v>1.16</v>
       </c>
       <c r="M99" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="N99" t="n">
-        <v>0.74</v>
+        <v>1.44</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -5530,28 +5530,28 @@
         <v>1.86</v>
       </c>
       <c r="H100" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="I100" t="n">
-        <v>2.07</v>
+        <v>1.7</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M100" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="N100" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5581,10 +5581,10 @@
         <v>0.66</v>
       </c>
       <c r="H101" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="I101" t="n">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5593,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M101" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="N101" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="O101" t="n">
         <v>3</v>
@@ -5632,10 +5632,10 @@
         <v>2.61</v>
       </c>
       <c r="H102" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="I102" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -5644,13 +5644,13 @@
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M102" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N102" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="O102" t="n">
         <v>4</v>
@@ -5683,10 +5683,10 @@
         <v>2.63</v>
       </c>
       <c r="H103" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="I103" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -5695,13 +5695,13 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="M103" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O103" t="n">
         <v>2</v>
@@ -5734,10 +5734,10 @@
         <v>1.83</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="I104" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -5746,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="M104" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="N104" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="O104" t="n">
         <v>2</v>
@@ -5785,10 +5785,10 @@
         <v>1.4</v>
       </c>
       <c r="H105" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="I105" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M105" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="N105" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="O105" t="n">
         <v>2</v>
@@ -5836,10 +5836,10 @@
         <v>1.11</v>
       </c>
       <c r="H106" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="I106" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="M106" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="N106" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -5887,11 +5887,11 @@
         <v>0.66</v>
       </c>
       <c r="H107" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I107" t="n">
         <v>0.58</v>
       </c>
-      <c r="I107" t="n">
-        <v>0.7</v>
-      </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="M107" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N107" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="O107" t="n">
         <v>2</v>
@@ -5938,10 +5938,10 @@
         <v>1.55</v>
       </c>
       <c r="H108" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="I108" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="M108" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="N108" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="O108" t="n">
         <v>2</v>
@@ -5989,10 +5989,10 @@
         <v>0.63</v>
       </c>
       <c r="H109" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="I109" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="M109" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="N109" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="O109" t="n">
         <v>3</v>
@@ -6040,10 +6040,10 @@
         <v>1.7</v>
       </c>
       <c r="H110" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="I110" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M110" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="N110" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="O110" t="n">
         <v>4</v>
@@ -6091,10 +6091,10 @@
         <v>1.62</v>
       </c>
       <c r="H111" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I111" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -6103,13 +6103,13 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="N111" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="O111" t="n">
         <v>2</v>
@@ -6142,10 +6142,10 @@
         <v>0.33</v>
       </c>
       <c r="H112" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="I112" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="M112" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="N112" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="O112" t="n">
         <v>3</v>
@@ -6193,10 +6193,10 @@
         <v>1.26</v>
       </c>
       <c r="H113" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="I113" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6205,13 +6205,13 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.67</v>
+        <v>1.36</v>
       </c>
       <c r="M113" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N113" t="n">
-        <v>1.11</v>
+        <v>1.81</v>
       </c>
       <c r="O113" t="n">
         <v>3</v>
@@ -6244,28 +6244,28 @@
         <v>0.95</v>
       </c>
       <c r="H114" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I114" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M114" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="N114" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -6295,10 +6295,10 @@
         <v>1.1</v>
       </c>
       <c r="H115" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="I115" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="M115" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="N115" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         <v>1.32</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I116" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6358,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N116" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="O116" t="n">
         <v>5</v>
@@ -6397,28 +6397,28 @@
         <v>2.92</v>
       </c>
       <c r="H117" t="n">
-        <v>1.03</v>
+        <v>0.25</v>
       </c>
       <c r="I117" t="n">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="M117" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="N117" t="n">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -6448,10 +6448,10 @@
         <v>2.51</v>
       </c>
       <c r="H118" t="n">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="I118" t="n">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -6460,13 +6460,13 @@
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="M118" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="N118" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="O118" t="n">
         <v>2</v>
@@ -6499,10 +6499,10 @@
         <v>0.8</v>
       </c>
       <c r="H119" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="I119" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M119" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="N119" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="O119" t="n">
         <v>1</v>
@@ -6550,28 +6550,28 @@
         <v>3.15</v>
       </c>
       <c r="H120" t="n">
-        <v>1.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>3.85</v>
+        <v>2.87</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>0.39</v>
+        <v>1.12</v>
       </c>
       <c r="M120" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="N120" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="O120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -6601,10 +6601,10 @@
         <v>0.86</v>
       </c>
       <c r="H121" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I121" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M121" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="N121" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="O121" t="n">
         <v>2</v>
@@ -6652,10 +6652,10 @@
         <v>1.01</v>
       </c>
       <c r="H122" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I122" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="M122" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="N122" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="O122" t="n">
         <v>2</v>
@@ -6703,10 +6703,10 @@
         <v>1.06</v>
       </c>
       <c r="H123" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="I123" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="M123" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="N123" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O123" t="n">
         <v>5</v>
@@ -6754,10 +6754,10 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="I124" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="O124" t="n">
         <v>2</v>
@@ -6805,28 +6805,28 @@
         <v>0.59</v>
       </c>
       <c r="H125" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="I125" t="n">
         <v>0.62</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.01</v>
+        <v>0.64</v>
       </c>
       <c r="M125" t="n">
         <v>0.03</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -6856,28 +6856,28 @@
         <v>3.6</v>
       </c>
       <c r="H126" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="I126" t="n">
-        <v>3.37</v>
+        <v>1.66</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="M126" t="n">
-        <v>0.23</v>
+        <v>1.94</v>
       </c>
       <c r="N126" t="n">
-        <v>0.98</v>
+        <v>2.61</v>
       </c>
       <c r="O126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -6907,28 +6907,28 @@
         <v>3.29</v>
       </c>
       <c r="H127" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I127" t="n">
-        <v>3.18</v>
+        <v>0.87</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="M127" t="n">
-        <v>0.11</v>
+        <v>2.42</v>
       </c>
       <c r="N127" t="n">
-        <v>0.17</v>
+        <v>2.52</v>
       </c>
       <c r="O127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -6958,10 +6958,10 @@
         <v>1.24</v>
       </c>
       <c r="H128" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="I128" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="M128" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="N128" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="O128" t="n">
         <v>3</v>
@@ -7009,28 +7009,28 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="n">
-        <v>3.06</v>
+        <v>2.09</v>
       </c>
       <c r="I129" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0.51</v>
+        <v>1.48</v>
       </c>
       <c r="M129" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N129" t="n">
-        <v>0.66</v>
+        <v>1.54</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -7060,10 +7060,10 @@
         <v>0.58</v>
       </c>
       <c r="H130" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I130" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7072,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="M130" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="N130" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="O130" t="n">
         <v>4</v>
@@ -7111,10 +7111,10 @@
         <v>1.58</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="I131" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7123,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M131" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="N131" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="O131" t="n">
         <v>2</v>
@@ -7162,10 +7162,10 @@
         <v>1.64</v>
       </c>
       <c r="H132" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="I132" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -7174,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M132" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N132" t="n">
         <v>0.46</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.47</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
@@ -7213,10 +7213,10 @@
         <v>3.1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="I133" t="n">
-        <v>4.03</v>
+        <v>3.55</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="M133" t="n">
-        <v>0.93</v>
+        <v>0.45</v>
       </c>
       <c r="N133" t="n">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="O133" t="n">
         <v>3</v>
@@ -7264,7 +7264,7 @@
         <v>0.22</v>
       </c>
       <c r="H134" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="I134" t="n">
         <v>0.21</v>
@@ -7276,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="M134" t="n">
         <v>0.01</v>
       </c>
       <c r="N134" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="O134" t="n">
         <v>1</v>
@@ -7315,28 +7315,28 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="M135" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="N135" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="O135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -7366,10 +7366,10 @@
         <v>0.78</v>
       </c>
       <c r="H136" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="I136" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="M136" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="N136" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="O136" t="n">
         <v>4</v>
@@ -7417,10 +7417,10 @@
         <v>1.04</v>
       </c>
       <c r="H137" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="I137" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M137" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N137" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="O137" t="n">
         <v>2</v>
@@ -7519,10 +7519,10 @@
         <v>5.5</v>
       </c>
       <c r="H139" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="I139" t="n">
-        <v>4.81</v>
+        <v>4.73</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="M139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="N139" t="n">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="O139" t="n">
         <v>5</v>
@@ -7570,10 +7570,10 @@
         <v>0.87</v>
       </c>
       <c r="H140" t="n">
-        <v>2.96</v>
+        <v>3.27</v>
       </c>
       <c r="I140" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="M140" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="N140" t="n">
-        <v>0.95</v>
+        <v>0.62</v>
       </c>
       <c r="O140" t="n">
         <v>1</v>
@@ -7621,10 +7621,10 @@
         <v>1.47</v>
       </c>
       <c r="H141" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I141" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -7633,13 +7633,13 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="M141" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="N141" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O141" t="n">
         <v>4</v>
@@ -7672,10 +7672,10 @@
         <v>0.33</v>
       </c>
       <c r="H142" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="I142" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7684,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N142" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -7723,10 +7723,10 @@
         <v>1.48</v>
       </c>
       <c r="H143" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="I143" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -7735,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="M143" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="N143" t="n">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="O143" t="n">
         <v>6</v>
@@ -7774,10 +7774,10 @@
         <v>1.45</v>
       </c>
       <c r="H144" t="n">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="I144" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="O144" t="n">
         <v>4</v>
@@ -7825,10 +7825,10 @@
         <v>0.83</v>
       </c>
       <c r="H145" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="I145" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -7837,13 +7837,13 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="M145" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="N145" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="O145" t="n">
         <v>5</v>
@@ -7876,25 +7876,25 @@
         <v>2.03</v>
       </c>
       <c r="H146" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I146" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L146" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="N146" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="O146" t="n">
         <v>2</v>
@@ -7927,10 +7927,10 @@
         <v>3.4</v>
       </c>
       <c r="H147" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="I147" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -7939,13 +7939,13 @@
         <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="M147" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N147" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="O147" t="n">
         <v>1</v>
@@ -7978,10 +7978,10 @@
         <v>1.54</v>
       </c>
       <c r="H148" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="I148" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="M148" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="N148" t="n">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="O148" t="n">
         <v>4</v>
@@ -8029,28 +8029,28 @@
         <v>2.83</v>
       </c>
       <c r="H149" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="I149" t="n">
-        <v>3.03</v>
+        <v>1.72</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="M149" t="n">
-        <v>0.2</v>
+        <v>1.11</v>
       </c>
       <c r="N149" t="n">
-        <v>0.82</v>
+        <v>1.69</v>
       </c>
       <c r="O149" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -8080,10 +8080,10 @@
         <v>1.47</v>
       </c>
       <c r="H150" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="I150" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="M150" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="N150" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="O150" t="n">
         <v>3</v>
@@ -8131,10 +8131,10 @@
         <v>0.09</v>
       </c>
       <c r="H151" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="M151" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N151" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="O151" t="n">
         <v>0</v>
@@ -8182,10 +8182,10 @@
         <v>1.22</v>
       </c>
       <c r="H152" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="I152" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -8194,13 +8194,13 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="M152" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="N152" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="O152" t="n">
         <v>4</v>
@@ -8233,28 +8233,28 @@
         <v>0.19</v>
       </c>
       <c r="H153" t="n">
-        <v>4.13</v>
+        <v>3.74</v>
       </c>
       <c r="I153" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="M153" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N153" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="O153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -8284,10 +8284,10 @@
         <v>0.42</v>
       </c>
       <c r="H154" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="I154" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="M154" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N154" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="O154" t="n">
         <v>3</v>
@@ -8335,10 +8335,10 @@
         <v>1.2</v>
       </c>
       <c r="H155" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="I155" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M155" t="n">
         <v>0.19</v>
       </c>
-      <c r="M155" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N155" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="O155" t="n">
         <v>3</v>
@@ -8389,7 +8389,7 @@
         <v>0.8</v>
       </c>
       <c r="I156" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
         <v>0.2</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="O156" t="n">
         <v>3</v>
@@ -8440,7 +8440,7 @@
         <v>2.29</v>
       </c>
       <c r="I157" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0.06</v>
       </c>
       <c r="M157" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="N157" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="O157" t="n">
         <v>3</v>
@@ -8488,28 +8488,28 @@
         <v>2.08</v>
       </c>
       <c r="H158" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I158" t="n">
-        <v>1.46</v>
+        <v>0.49</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M158" t="n">
-        <v>0.62</v>
+        <v>1.59</v>
       </c>
       <c r="N158" t="n">
-        <v>0.76</v>
+        <v>1.73</v>
       </c>
       <c r="O158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -8539,28 +8539,28 @@
         <v>2.44</v>
       </c>
       <c r="H159" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I159" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M159" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="N159" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="O159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -8590,28 +8590,28 @@
         <v>2.06</v>
       </c>
       <c r="H160" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="I160" t="n">
-        <v>2.56</v>
+        <v>1.73</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="M160" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="N160" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="O160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -8641,10 +8641,10 @@
         <v>1.03</v>
       </c>
       <c r="H161" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="M161" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="N161" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="O161" t="n">
         <v>3</v>
@@ -8692,10 +8692,10 @@
         <v>0.9</v>
       </c>
       <c r="H162" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="I162" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="M162" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N162" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="O162" t="n">
         <v>2</v>
@@ -8743,10 +8743,10 @@
         <v>3.01</v>
       </c>
       <c r="H163" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="I163" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -8755,13 +8755,13 @@
         <v>2</v>
       </c>
       <c r="L163" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="N163" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="O163" t="n">
         <v>4</v>
@@ -8794,10 +8794,10 @@
         <v>2.33</v>
       </c>
       <c r="H164" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="I164" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -8806,13 +8806,13 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M164" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="N164" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="O164" t="n">
         <v>4</v>
@@ -8845,28 +8845,28 @@
         <v>0.96</v>
       </c>
       <c r="H165" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="I165" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="M165" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="N165" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="O165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -8896,10 +8896,10 @@
         <v>1.28</v>
       </c>
       <c r="H166" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="I166" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -8908,13 +8908,13 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="M166" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="N166" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0.26</v>
       </c>
       <c r="H167" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I167" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -8959,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="M167" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="O167" t="n">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>1.11</v>
       </c>
       <c r="H168" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I168" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -9010,13 +9010,13 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="M168" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="N168" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="O168" t="n">
         <v>3</v>
@@ -9049,28 +9049,28 @@
         <v>1.63</v>
       </c>
       <c r="H169" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="I169" t="n">
-        <v>1.65</v>
+        <v>0.89</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="M169" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="N169" t="n">
-        <v>0.31</v>
+        <v>0.97</v>
       </c>
       <c r="O169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -9100,10 +9100,10 @@
         <v>6.27</v>
       </c>
       <c r="H170" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="I170" t="n">
-        <v>5.01</v>
+        <v>5.18</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>3</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M170" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="N170" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="O170" t="n">
         <v>6</v>
@@ -9151,10 +9151,10 @@
         <v>0.45</v>
       </c>
       <c r="H171" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="I171" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M171" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="N171" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>1.03</v>
       </c>
       <c r="I172" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -9217,10 +9217,10 @@
         <v>0.09</v>
       </c>
       <c r="M172" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="N172" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="O172" t="n">
         <v>3</v>
@@ -9253,10 +9253,10 @@
         <v>0.34</v>
       </c>
       <c r="H173" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="I173" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -9265,13 +9265,13 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="M173" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N173" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="O173" t="n">
         <v>4</v>
@@ -9304,28 +9304,28 @@
         <v>0.66</v>
       </c>
       <c r="H174" t="n">
-        <v>2.07</v>
+        <v>1.18</v>
       </c>
       <c r="I174" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0.27</v>
+        <v>1.16</v>
       </c>
       <c r="M174" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="N174" t="n">
-        <v>0.45</v>
+        <v>1.31</v>
       </c>
       <c r="O174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -9355,10 +9355,10 @@
         <v>0.35</v>
       </c>
       <c r="H175" t="n">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="I175" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -9367,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
       <c r="M175" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N175" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="O175" t="n">
         <v>2</v>
@@ -9406,10 +9406,10 @@
         <v>0.9</v>
       </c>
       <c r="H176" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="I176" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N176" t="n">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="O176" t="n">
         <v>1</v>
@@ -9457,10 +9457,10 @@
         <v>1.84</v>
       </c>
       <c r="H177" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I177" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -9469,13 +9469,13 @@
         <v>1</v>
       </c>
       <c r="L177" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="M177" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="N177" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="O177" t="n">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>0.44</v>
       </c>
       <c r="H178" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="I178" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -9520,13 +9520,13 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="M178" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="N178" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="O178" t="n">
         <v>2</v>
@@ -9559,10 +9559,10 @@
         <v>0.15</v>
       </c>
       <c r="H179" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="I179" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
@@ -9571,13 +9571,13 @@
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="M179" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="O179" t="n">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         <v>1.07</v>
       </c>
       <c r="H180" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="I180" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -9622,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="M180" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N180" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="O180" t="n">
         <v>0</v>
@@ -9661,10 +9661,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="I181" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -9673,13 +9673,13 @@
         <v>1</v>
       </c>
       <c r="L181" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M181" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="N181" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="O181" t="n">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>1.61</v>
       </c>
       <c r="H182" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="I182" t="n">
         <v>1.21</v>
@@ -9724,13 +9724,13 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="M182" t="n">
         <v>0.4</v>
       </c>
       <c r="N182" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="O182" t="n">
         <v>2</v>
@@ -9763,10 +9763,10 @@
         <v>1.98</v>
       </c>
       <c r="H183" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="I183" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -9775,13 +9775,13 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="M183" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="N183" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="O183" t="n">
         <v>4</v>
@@ -9814,10 +9814,10 @@
         <v>1.27</v>
       </c>
       <c r="H184" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="I184" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -9826,13 +9826,13 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="N184" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="O184" t="n">
         <v>2</v>
@@ -9865,28 +9865,28 @@
         <v>0.72</v>
       </c>
       <c r="H185" t="n">
-        <v>1.83</v>
+        <v>1.11</v>
       </c>
       <c r="I185" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.42</v>
+        <v>1.14</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N185" t="n">
-        <v>0.52</v>
+        <v>1.25</v>
       </c>
       <c r="O185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -9916,10 +9916,10 @@
         <v>3.15</v>
       </c>
       <c r="H186" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="I186" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -9928,13 +9928,13 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="M186" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="N186" t="n">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="O186" t="n">
         <v>5</v>
@@ -9967,28 +9967,28 @@
         <v>1.13</v>
       </c>
       <c r="H187" t="n">
-        <v>2.32</v>
+        <v>1.43</v>
       </c>
       <c r="I187" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="N187" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="O187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -10018,28 +10018,28 @@
         <v>2.03</v>
       </c>
       <c r="H188" t="n">
-        <v>1.7</v>
+        <v>0.93</v>
       </c>
       <c r="I188" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="M188" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="N188" t="n">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="O188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -10069,10 +10069,10 @@
         <v>1.92</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="I189" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -10084,10 +10084,10 @@
         <v>0.08</v>
       </c>
       <c r="M189" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="N189" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="O189" t="n">
         <v>2</v>
@@ -10120,10 +10120,10 @@
         <v>1.92</v>
       </c>
       <c r="H190" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I190" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -10132,13 +10132,13 @@
         <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M190" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N190" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="O190" t="n">
         <v>3</v>
@@ -10174,7 +10174,7 @@
         <v>2.33</v>
       </c>
       <c r="I191" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -10186,10 +10186,10 @@
         <v>0.77</v>
       </c>
       <c r="M191" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O191" t="n">
         <v>3</v>
@@ -10222,10 +10222,10 @@
         <v>0.71</v>
       </c>
       <c r="H192" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="I192" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -10234,13 +10234,13 @@
         <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N192" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="O192" t="n">
         <v>1</v>
@@ -10273,28 +10273,28 @@
         <v>0.88</v>
       </c>
       <c r="H193" t="n">
-        <v>1.45</v>
+        <v>0.59</v>
       </c>
       <c r="I193" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="J193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="M193" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="N193" t="n">
-        <v>0.53</v>
+        <v>1.37</v>
       </c>
       <c r="O193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -10324,10 +10324,10 @@
         <v>1.24</v>
       </c>
       <c r="H194" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -10336,13 +10336,13 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="M194" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="N194" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="O194" t="n">
         <v>2</v>
@@ -10375,10 +10375,10 @@
         <v>1.37</v>
       </c>
       <c r="H195" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="I195" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -10387,13 +10387,13 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="N195" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="O195" t="n">
         <v>5</v>
@@ -10426,28 +10426,28 @@
         <v>4.46</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I196" t="n">
-        <v>3.96</v>
+        <v>3.11</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>0.01</v>
       </c>
       <c r="M196" t="n">
-        <v>0.5</v>
+        <v>1.35</v>
       </c>
       <c r="N196" t="n">
-        <v>0.51</v>
+        <v>1.36</v>
       </c>
       <c r="O196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -10480,7 +10480,7 @@
         <v>1.2</v>
       </c>
       <c r="I197" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -10492,10 +10492,10 @@
         <v>0.25</v>
       </c>
       <c r="M197" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="N197" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="O197" t="n">
         <v>2</v>
@@ -10528,28 +10528,28 @@
         <v>1.59</v>
       </c>
       <c r="H198" t="n">
-        <v>2.53</v>
+        <v>1.06</v>
       </c>
       <c r="I198" t="n">
-        <v>1.59</v>
+        <v>0.67</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>0.29</v>
+        <v>1.18</v>
       </c>
       <c r="M198" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="N198" t="n">
-        <v>0.29</v>
+        <v>2.1</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -10579,28 +10579,28 @@
         <v>1.06</v>
       </c>
       <c r="H199" t="n">
-        <v>2.7</v>
+        <v>1.61</v>
       </c>
       <c r="I199" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="M199" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N199" t="n">
-        <v>0.16</v>
+        <v>1.27</v>
       </c>
       <c r="O199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -10630,28 +10630,28 @@
         <v>2.13</v>
       </c>
       <c r="H200" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="I200" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="N200" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -10681,10 +10681,10 @@
         <v>2.21</v>
       </c>
       <c r="H201" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="I201" t="n">
-        <v>2.61</v>
+        <v>2.28</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -10693,13 +10693,13 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="M201" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N201" t="n">
-        <v>1.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O201" t="n">
         <v>4</v>
@@ -10732,28 +10732,28 @@
         <v>1.18</v>
       </c>
       <c r="H202" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="I202" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M202" t="n">
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
       <c r="N202" t="n">
-        <v>0.28</v>
+        <v>0.88</v>
       </c>
       <c r="O202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -10783,10 +10783,10 @@
         <v>1.99</v>
       </c>
       <c r="H203" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I203" t="n">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -10795,13 +10795,13 @@
         <v>1</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M203" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="N203" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="O203" t="n">
         <v>1</v>
@@ -10837,25 +10837,25 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I204" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>0.39</v>
       </c>
       <c r="M204" t="n">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="N204" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="O204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -10885,28 +10885,28 @@
         <v>0.78</v>
       </c>
       <c r="H205" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="I205" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="M205" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="N205" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="O205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -10936,10 +10936,10 @@
         <v>1.21</v>
       </c>
       <c r="H206" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="I206" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -10948,13 +10948,13 @@
         <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M206" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="N206" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="O206" t="n">
         <v>1</v>
@@ -10987,10 +10987,10 @@
         <v>1.82</v>
       </c>
       <c r="H207" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="I207" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -10999,13 +10999,13 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M207" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="N207" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="O207" t="n">
         <v>2</v>
@@ -11038,10 +11038,10 @@
         <v>1.62</v>
       </c>
       <c r="H208" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="I208" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -11050,13 +11050,13 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N208" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="O208" t="n">
         <v>3</v>
@@ -11089,7 +11089,7 @@
         <v>0.97</v>
       </c>
       <c r="H209" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I209" t="n">
         <v>1.7</v>
@@ -11101,13 +11101,13 @@
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="M209" t="n">
         <v>0.73</v>
       </c>
       <c r="N209" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="O209" t="n">
         <v>2</v>
@@ -11140,10 +11140,10 @@
         <v>1.54</v>
       </c>
       <c r="H210" t="n">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="I210" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -11152,13 +11152,13 @@
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="M210" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="N210" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="O210" t="n">
         <v>4</v>
@@ -11191,28 +11191,28 @@
         <v>1.04</v>
       </c>
       <c r="H211" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="I211" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M211" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="N211" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="O211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -11242,28 +11242,28 @@
         <v>3.43</v>
       </c>
       <c r="H212" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>5.26</v>
+        <v>4.32</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="M212" t="n">
-        <v>1.83</v>
+        <v>0.89</v>
       </c>
       <c r="N212" t="n">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="O212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -11293,10 +11293,10 @@
         <v>2.19</v>
       </c>
       <c r="H213" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I213" t="n">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M213" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="N213" t="n">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="O213" t="n">
         <v>1</v>
@@ -11344,10 +11344,10 @@
         <v>2.05</v>
       </c>
       <c r="H214" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I214" t="n">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -11356,13 +11356,13 @@
         <v>1</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="N214" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="O214" t="n">
         <v>4</v>
@@ -11395,28 +11395,28 @@
         <v>1.32</v>
       </c>
       <c r="H215" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="I215" t="n">
-        <v>1.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="M215" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="N215" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="O215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -11446,10 +11446,10 @@
         <v>1.13</v>
       </c>
       <c r="H216" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="I216" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -11458,13 +11458,13 @@
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="M216" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="N216" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="O216" t="n">
         <v>5</v>
@@ -11497,10 +11497,10 @@
         <v>3.06</v>
       </c>
       <c r="H217" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I217" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -11509,13 +11509,13 @@
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="M217" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="N217" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="O217" t="n">
         <v>6</v>
@@ -11548,28 +11548,28 @@
         <v>1.93</v>
       </c>
       <c r="H218" t="n">
-        <v>1.62</v>
+        <v>0.84</v>
       </c>
       <c r="I218" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
         <v>1</v>
       </c>
       <c r="L218" t="n">
-        <v>0.14</v>
+        <v>0.64</v>
       </c>
       <c r="M218" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="N218" t="n">
-        <v>0.32</v>
+        <v>0.77</v>
       </c>
       <c r="O218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -11599,10 +11599,10 @@
         <v>0.89</v>
       </c>
       <c r="H219" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="I219" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="J219" t="n">
         <v>2</v>
@@ -11611,13 +11611,13 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="M219" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="N219" t="n">
-        <v>0.57</v>
+        <v>0.77</v>
       </c>
       <c r="O219" t="n">
         <v>3</v>
@@ -11650,28 +11650,28 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>2.78</v>
+        <v>2.61</v>
       </c>
       <c r="I220" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="M220" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N220" t="n">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="O220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
@@ -11701,10 +11701,10 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="I221" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -11713,13 +11713,13 @@
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M221" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="N221" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O221" t="n">
         <v>5</v>
@@ -11752,28 +11752,28 @@
         <v>0.85</v>
       </c>
       <c r="H222" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N222" t="n">
         <v>0.89</v>
       </c>
-      <c r="I222" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0</v>
-      </c>
-      <c r="K222" t="n">
-        <v>1</v>
-      </c>
-      <c r="L222" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M222" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.17</v>
-      </c>
       <c r="O222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -11803,28 +11803,28 @@
         <v>0.48</v>
       </c>
       <c r="H223" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="I223" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="J223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="M223" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="N223" t="n">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="O223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -11854,10 +11854,10 @@
         <v>1.8</v>
       </c>
       <c r="H224" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="I224" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -11866,13 +11866,13 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="M224" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="N224" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="O224" t="n">
         <v>4</v>
@@ -11905,28 +11905,28 @@
         <v>2.93</v>
       </c>
       <c r="H225" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="I225" t="n">
-        <v>2.37</v>
+        <v>1.59</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="M225" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="N225" t="n">
-        <v>0.72</v>
+        <v>1.44</v>
       </c>
       <c r="O225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -11956,10 +11956,10 @@
         <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -11968,13 +11968,13 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="M226" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N226" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O226" t="n">
         <v>1</v>
@@ -12007,10 +12007,10 @@
         <v>1.31</v>
       </c>
       <c r="H227" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="I227" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -12019,13 +12019,13 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="M227" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="N227" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="O227" t="n">
         <v>2</v>
@@ -12058,28 +12058,28 @@
         <v>1.26</v>
       </c>
       <c r="H228" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I228" t="n">
-        <v>1.24</v>
+        <v>0.49</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M228" t="n">
-        <v>0.02</v>
+        <v>0.77</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="O228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -12109,10 +12109,10 @@
         <v>0.25</v>
       </c>
       <c r="H229" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="I229" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -12121,13 +12121,13 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O229" t="n">
         <v>1</v>
@@ -12160,10 +12160,10 @@
         <v>1.56</v>
       </c>
       <c r="H230" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="I230" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -12172,13 +12172,13 @@
         <v>1</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="M230" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="N230" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="O230" t="n">
         <v>2</v>
@@ -12211,28 +12211,28 @@
         <v>2.52</v>
       </c>
       <c r="H231" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="I231" t="n">
-        <v>3.03</v>
+        <v>2.18</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="M231" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="N231" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -12262,10 +12262,10 @@
         <v>0.33</v>
       </c>
       <c r="H232" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -12274,13 +12274,13 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M232" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N232" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="O232" t="n">
         <v>4</v>
@@ -12313,7 +12313,7 @@
         <v>0.92</v>
       </c>
       <c r="H233" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="I233" t="n">
         <v>1.32</v>
@@ -12325,13 +12325,13 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="M233" t="n">
         <v>0.4</v>
       </c>
       <c r="N233" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="O233" t="n">
         <v>3</v>
@@ -12364,10 +12364,10 @@
         <v>1.56</v>
       </c>
       <c r="H234" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="I234" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -12376,13 +12376,13 @@
         <v>1</v>
       </c>
       <c r="L234" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="N234" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="O234" t="n">
         <v>2</v>
@@ -12415,28 +12415,28 @@
         <v>0.88</v>
       </c>
       <c r="H235" t="n">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="I235" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M235" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="O235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -12466,10 +12466,10 @@
         <v>0.45</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I236" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -12478,13 +12478,13 @@
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="M236" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="N236" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="O236" t="n">
         <v>2</v>
@@ -12517,10 +12517,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H237" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="I237" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -12529,13 +12529,13 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="M237" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N237" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="O237" t="n">
         <v>6</v>
@@ -12568,28 +12568,28 @@
         <v>0.86</v>
       </c>
       <c r="H238" t="n">
-        <v>2.49</v>
+        <v>2.7</v>
       </c>
       <c r="I238" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="M238" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="N238" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="O238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -12619,10 +12619,10 @@
         <v>2.63</v>
       </c>
       <c r="H239" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I239" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -12631,13 +12631,13 @@
         <v>1</v>
       </c>
       <c r="L239" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="M239" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="N239" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="O239" t="n">
         <v>1</v>
@@ -12670,10 +12670,10 @@
         <v>1.22</v>
       </c>
       <c r="H240" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="I240" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -12682,16 +12682,577 @@
         <v>1</v>
       </c>
       <c r="L240" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="N240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O241" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I245" t="n">
         <v>0.39</v>
       </c>
-      <c r="O240" t="n">
-        <v>2</v>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leagueStats/leagueStats_ENG_minute.xlsx
+++ b/leagueStats/leagueStats_ENG_minute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13255,6 +13255,1587 @@
         <v>1</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O252" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O253" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O257" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O259" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G260" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>4</v>
+      </c>
+      <c r="E262" t="n">
+        <v>3</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O262" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O264" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>4</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H265" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O269" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>2</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Brighton &amp; Hove Albion</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>3</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O276" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>2</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O281" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
